--- a/Smart_wheelchairs_review_report.xlsx
+++ b/Smart_wheelchairs_review_report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC8A3D6E-8DB6-40BE-A578-873D16E501B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7E10A0-FE0E-46B8-B525-61025879D2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,23 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="247">
   <si>
     <t>file
 name</t>
   </si>
   <si>
-    <t>no.
-ref</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
     <t>Software</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Year</t>
@@ -168,43 +161,6 @@
     <t>In this study presented the  smart wheelchair system, together with a mapping service, in an urban environment.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">1. quadrature encoders (4096 CPR) and a Microstrain 3DM-GX1 IMU.
-2. 2 Exteroceptive sensors  IFM O3D200 3D cameras and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> 3. Hokuyo </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. ROS
 2. Point Cloud Library
 </t>
@@ -308,31 +264,6 @@
   </si>
   <si>
     <t>VideoPoint Physics Fundamentals software</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. The results showed that the system is able to acquire data from sensors and make decisions 46.16 times per second.
-2. They implemented a wheelchair navigation assistant.
-3. And finally, the implemented system is useful for patients who find it difficult to work with a wheelchair because this implementation system prevents patients from hitting objects while moving.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>Abdulghani et al.</t>
@@ -1016,12 +947,198 @@
   <si>
     <t>System Design1</t>
   </si>
+  <si>
+    <t>This paper presented a design and validation of a smart wheelchair that reduces manual propelling effort, is cost-effective, and adaptable for indoor and outdoor use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor
+Battery
+Switch
+Accelerometer sensor
+Arduino
+Bluetooth
+</t>
+  </si>
+  <si>
+    <t>Android Application</t>
+  </si>
+  <si>
+    <t>The authors described the creation of modern smart wheelchair accessories.</t>
+  </si>
+  <si>
+    <t>Camera
+Joystick
+Battery
+Power Bank
+Network Card
+ESP8266 Board</t>
+  </si>
+  <si>
+    <t>Smart phone</t>
+  </si>
+  <si>
+    <t>Internet of Things (IoT) connects appliances, services, monitoring, and controlling devices in electric-powered smart wheelchairs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proposed system is efficient to reduce the effort taken by the individual to propel it manually. </t>
+  </si>
+  <si>
+    <t>They designed and implemented a low-cost software and hardware method to steer a robotic wheelchair .</t>
+  </si>
+  <si>
+    <t>Microphone
+Raspberry Pi
+ DC motor</t>
+  </si>
+  <si>
+    <t>Android mobile app based on Flutter software</t>
+  </si>
+  <si>
+    <t>The smartphone app was also created using a voice recognition model linked with a convolutional neural network (CNN)-based network in network (NIN) structure technique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper described the design and fabrication of the second iteration of an electronic gadget adaptable to a motorised wheelchair that functions as an intelligent navigation system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three arduino UNO board based on the Atmega328P microcontroller
+A MX2125 accelerometer
+A 2.2 ”(5.588cm) long Flex Sensor
+A myoelectric muscle sensor
+A HC-05 Bluetooth Module
+</t>
+  </si>
+  <si>
+    <t>Mobile Application</t>
+  </si>
+  <si>
+    <t>The paper presented an electronic device for motorized wheelchairs, serving as a navigation system, developed with minimal investment, making it accessible to limited resource individuals.</t>
+  </si>
+  <si>
+    <t>Jun Xu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper, has  design a technologically intelligent wheelchair with eye-movement control
+for patients with ALS in a natural environment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">electro encephal gram (EEG) 
+ electrooculography(EOG)  
+Camera   
+Arduino
+ virtual reality (VR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Robot Operating System (ROS) 
+Gazebo softwar</t>
+  </si>
+  <si>
+    <t>model is transplanted into an embedded AI controller. The test results
+show that the accuracy of eye-movement direction recognition is 98.49%</t>
+  </si>
+  <si>
+    <t>Muhammad Sheikh Sadi</t>
+  </si>
+  <si>
+    <t>This paper
+proposes a gesture-controlled smart wheelchair system with an IoT-enabled fall detection mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It maintains the safety of the users by performing fall detection with IoTbased emergency messaging systems.
+The development cost of the overall system is cheap and is
+lesser than USD 300. Hence, it is expected that the proposed smart wheelchair should be affordable, safe, and helpful to physically disordered people in their independent mobility.</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network (CNN)
+Kernelized Correlation Filters (KCF) 
+Region of Interest (ROI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+two Dcmotors  power rating of 250 W
+12 V rechargeable Lead Acid battery (for power supply)
+Ultrasonic sensors
+accelerometer
+RGB camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. Martı´n-Chinea
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper, the effectiveness of using an LSTM with a low-cost wireless EEG device in real time is tested, and the time window that maximizes its classiﬁcation accuracy is studied. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  brain-computer interface (BCI)system
+electro encephal gram (EEG) </t>
+  </si>
+  <si>
+    <t>The goal is to be able to
+implement it in the BCI of a smart wheelchair with a simple coded command protocol, such as opening or closing the eyes,
+which could be executed by patients with reduced mobility. Results show a higher resolution of the LSTM with an
+accuracy range between 77.61 and 92.14% compared to traditional classiﬁers (59.71%), and an optimal time window of
+around 7 s for the task done by users in this work. In addition, tests in real-life contexts show that a trade-off between
+accuracy and response times is necessary to ensure detection.</t>
+  </si>
+  <si>
+    <t>support vector machine (SVM)
+discriminant analysis (DA)
+decision tree learning (DTL)
+ﬁcial neural networks (ANN) 
+Recurrent neural network algorithms (RNN)    
+long short-term memory network (LSTM) (a type of recurrent neural network)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. quadrature encoders (4096 CPR) and a Microstrain 3DM-GX1 IMU.
+2. 2 Exteroceptive sensors  IFM O3D200 3D cameras and 
+ 3. Hokuyo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The results showed that the system is able to acquire data from sensors and make decisions 46.16 times per second.
+2. They implemented a wheelchair navigation assistant.
+3. And finally, the implemented system is useful for patients who find it difficult to work with a wheelchair because this implementation system prevents patients from hitting objects while moving.
+</t>
+  </si>
+  <si>
+    <t>The authors proposed A novel ankle rehabilitation robot enhances stroke therapy using a cable-actuated parallel mechanism and wheelchair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tension sensor
+Variable-stiffness device
+Cable
+Motor
+</t>
+  </si>
+  <si>
+    <t>Ankle rehabilitation robots
+(ARRs)</t>
+  </si>
+  <si>
+    <t>A robot to help stroke patients based on ankle rehabilitation is presented and it works well.</t>
+  </si>
+  <si>
+    <t>FAuthors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saravanan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muangmeesri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakouri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandoval-Bringas </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,22 +1161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
@@ -1068,65 +1169,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="NimbusRomNo9L"/>
+      <name val="Times Roman"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calisto MT"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1149,47 +1202,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1258,15 +1276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1291,17 +1300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1316,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1324,131 +1322,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1457,7 +1386,7 @@
   <dxfs count="12">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1468,31 +1397,7 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
+        <name val="Calisto MT"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1507,120 +1412,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1640,41 +1431,9 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
+        <name val="Calisto MT"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1683,7 +1442,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1710,9 +1469,155 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="24"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Times Roman"/>
+        <name val="Calisto MT"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calisto MT"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calisto MT"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calisto MT"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calisto MT"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1757,6 +1662,30 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calisto MT"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1819,8 +1748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="B1:H43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="B1:H43" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:G51" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G51" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1830,13 +1759,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="file_x000a_name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Authors" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Short Review" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="System Design1" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="System Design2" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Result and Nobility" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="file_x000a_name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="FAuthors" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Short Review" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="System Design1" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="System Design2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Result and Nobility" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2139,1021 +2068,1182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="30"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="59.453125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="12.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.453125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="61.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="61.95" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="199.95" customHeight="1">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="199.95" customHeight="1">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="199.95" customHeight="1">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="199.95" customHeight="1">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="315" customHeight="1">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="87">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="B8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="87">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="87">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="69.599999999999994">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="121.8">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="156.6">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="121.8">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="156.6">
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="121.8">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="121.8">
+      <c r="A17" s="16">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="174">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="121.8">
+      <c r="A19" s="16">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="174">
+      <c r="A20" s="16">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="139.19999999999999">
+      <c r="A21" s="16">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="139.19999999999999">
+      <c r="A22" s="16">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="156.6">
+      <c r="A23" s="16">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="104.4">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="87">
+      <c r="A25" s="16">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="226.2">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2016</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="208.8">
+      <c r="A27" s="16">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2016</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="156.6">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="139.19999999999999">
+      <c r="A29" s="16">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="139.19999999999999">
+      <c r="A30" s="16">
+        <v>28</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="261">
+      <c r="A31" s="16">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="139.19999999999999">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" ht="87">
+      <c r="A33" s="16">
+        <v>31</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="261">
+      <c r="A34" s="16">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="139.19999999999999">
+      <c r="A35" s="16">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="121.8">
+      <c r="A36" s="16">
+        <v>34</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="12">
+        <v>2016</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="208.8">
+      <c r="A37" s="16">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2016</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="121.8">
+      <c r="A38" s="16">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="12">
+        <v>2016</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="208.8">
+      <c r="A39" s="16">
+        <v>37</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="139.19999999999999">
+      <c r="A40" s="16">
+        <v>38</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="139.19999999999999">
+      <c r="A41" s="16">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="12">
+        <v>2015</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="121.8">
+      <c r="A42" s="16">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="156.6">
+      <c r="A43" s="16">
+        <v>41</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2015</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="121.8">
+      <c r="A44" s="16">
+        <v>42</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="17">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="104.4">
+      <c r="A45" s="16">
+        <v>43</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="17">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="199.95" customHeight="1" thickBot="1">
-      <c r="A3" s="9">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43">
-        <v>6</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2019</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="199.95" customHeight="1" thickBot="1">
-      <c r="A4" s="10">
-        <v>7</v>
-      </c>
-      <c r="B4" s="44">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="199.95" customHeight="1" thickBot="1">
-      <c r="A5" s="10">
-        <v>8</v>
-      </c>
-      <c r="B5" s="44">
-        <v>8</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="199.95" customHeight="1" thickBot="1">
-      <c r="A6" s="10">
-        <v>9</v>
-      </c>
-      <c r="B6" s="44">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="315" customHeight="1" thickBot="1">
-      <c r="A7" s="10">
-        <v>10</v>
-      </c>
-      <c r="B7" s="44">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="87">
-      <c r="B8" s="27">
-        <v>11</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2017</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="87">
-      <c r="B9" s="27">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2017</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="87">
-      <c r="B10" s="27">
-        <v>13</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2017</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E45" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="69.599999999999994">
+      <c r="A46" s="16">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="B46" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="121.8">
+      <c r="A47" s="16">
         <v>45</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="B47" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="310.5" customHeight="1">
+      <c r="A48" s="16">
         <v>46</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="B48" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="18">
+        <v>2023</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="243.75" customHeight="1">
+      <c r="A49" s="16">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="B11" s="27">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B49" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="18">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="303" customHeight="1">
+      <c r="A50" s="16">
         <v>48</v>
       </c>
-      <c r="D11" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="B50" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="18">
+        <v>2022</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="87">
+      <c r="A51" s="16">
         <v>49</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="121.8">
-      <c r="B12" s="27">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="157.80000000000001">
-      <c r="B13" s="27">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="121.8">
-      <c r="B14" s="27">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="156.6">
-      <c r="B15" s="27">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="121.8">
-      <c r="B16" s="27">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="121.8">
-      <c r="B17" s="27">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="174">
-      <c r="B18" s="27">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="121.8">
-      <c r="B19" s="27">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="162">
-      <c r="B20" s="27">
-        <v>23</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="34">
-        <v>2020</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="144">
-      <c r="B21" s="27">
-        <v>24</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="144">
-      <c r="B22" s="27">
-        <v>25</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="162">
-      <c r="B23" s="27">
-        <v>26</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="108">
-      <c r="B24" s="27">
-        <v>27</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="72">
-      <c r="B25" s="27">
-        <v>28</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="2:8" ht="198">
-      <c r="B26" s="27">
-        <v>29</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="198">
-      <c r="B27" s="27">
-        <v>30</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="144">
-      <c r="B28" s="27">
-        <v>31</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="144">
-      <c r="B29" s="27">
-        <v>32</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="126">
-      <c r="B30" s="27">
-        <v>33</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="270">
-      <c r="B31" s="27">
-        <v>34</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="126">
-      <c r="B32" s="27">
-        <v>35</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="2:8" ht="90">
-      <c r="B33" s="27">
-        <v>36</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="270">
-      <c r="B34" s="27">
-        <v>37</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="126">
-      <c r="B35" s="27">
-        <v>38</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="126">
-      <c r="B36" s="27">
-        <v>39</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="216">
-      <c r="B37" s="27">
-        <v>40</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="126">
-      <c r="B38" s="27">
-        <v>41</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="198">
-      <c r="B39" s="27">
-        <v>42</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="144">
-      <c r="B40" s="27">
-        <v>43</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="144">
-      <c r="B41" s="27">
-        <v>44</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2015</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="126">
-      <c r="B42" s="27">
-        <v>45</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="144">
-      <c r="B43" s="37">
-        <v>46</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="6">
-        <v>2015</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>197</v>
+      <c r="B51" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="18">
+        <v>2023</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
